--- a/medicine/Handicap/Service_de_transport_adapté_de_la_Capitale/Service_de_transport_adapté_de_la_Capitale.xlsx
+++ b/medicine/Handicap/Service_de_transport_adapté_de_la_Capitale/Service_de_transport_adapté_de_la_Capitale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Service_de_transport_adapt%C3%A9_de_la_Capitale</t>
+          <t>Service_de_transport_adapté_de_la_Capitale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Service de transport adapté de la Capitale (STAC) est un organisme sans but lucratif ayant pour mandat de transporter les usagers ne pouvant pas utiliser le service en commun régulier sur le territoire du Réseau de transport de la Capitale, à Québec. Ce service est admissible aux personnes handicapées respectant certaines exigences techniques.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Service_de_transport_adapt%C3%A9_de_la_Capitale</t>
+          <t>Service_de_transport_adapté_de_la_Capitale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Tarification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Billet 18 ans et moins - Ainé
 Billet Général - Étudiant+
